--- a/tournaments/2024-mens-euro.xlsx
+++ b/tournaments/2024-mens-euro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92EAA8-F2ED-4185-BFED-8ED582CD3F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DA7C-9D52-4D59-9EBB-FB3A69516C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="13800" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2567" yWindow="2567" windowWidth="19200" windowHeight="10073" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
   <si>
     <t>A1</t>
   </si>
@@ -287,9 +287,6 @@
     <t>ITA</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -666,6 +663,45 @@
   </si>
   <si>
     <t>W48</t>
+  </si>
+  <si>
+    <t>medium green</t>
+  </si>
+  <si>
+    <t>#00b26b</t>
+  </si>
+  <si>
+    <t>medium blue</t>
+  </si>
+  <si>
+    <t>#005baa</t>
+  </si>
+  <si>
+    <t>medium red</t>
+  </si>
+  <si>
+    <t>#ed1c24</t>
+  </si>
+  <si>
+    <t>medium yellow</t>
+  </si>
+  <si>
+    <t>#fcaf17</t>
+  </si>
+  <si>
+    <t>#5f97b4</t>
+  </si>
+  <si>
+    <t>medum teal</t>
+  </si>
+  <si>
+    <t>medium navy</t>
+  </si>
+  <si>
+    <t>#2a2f39</t>
+  </si>
+  <si>
+    <t>#8c8c8c</t>
   </si>
 </sst>
 </file>
@@ -805,9 +841,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{74FEACBC-8E4D-4EFA-8F69-50200C488F4A}" name="key"/>
     <tableColumn id="2" xr3:uid="{A581F199-5AED-47CD-9F67-78BB18ACA6D7}" name="en"/>
     <tableColumn id="3" xr3:uid="{842A5943-6DCD-4A02-90FE-ED0B95974031}" name="es"/>
@@ -817,7 +853,6 @@
     <tableColumn id="7" xr3:uid="{62715CD3-F132-44D5-89DB-3FEA3938DCAE}" name="nl"/>
     <tableColumn id="8" xr3:uid="{373F278C-AA56-4847-9936-7CDB1D93754B}" name="ja"/>
     <tableColumn id="9" xr3:uid="{6DCFFACA-53BA-4D49-9A7E-5B9205135116}" name="fa"/>
-    <tableColumn id="10" xr3:uid="{DB871EDA-A6EF-43E8-877D-5049B077A768}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1176,28 +1211,28 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>116</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>117</v>
-      </c>
-      <c r="I2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
@@ -1205,28 +1240,28 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>120</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>122</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>124</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>125</v>
-      </c>
-      <c r="I3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
@@ -1234,28 +1269,28 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>128</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>129</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
@@ -1263,28 +1298,28 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>132</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
         <v>133</v>
       </c>
-      <c r="E5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>134</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>135</v>
-      </c>
-      <c r="I5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
@@ -1292,28 +1327,28 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>139</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>141</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>142</v>
-      </c>
-      <c r="I6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
@@ -1321,28 +1356,28 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
         <v>144</v>
       </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>145</v>
-      </c>
-      <c r="I7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
@@ -1350,28 +1385,28 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>149</v>
-      </c>
-      <c r="I8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
@@ -1379,28 +1414,28 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
         <v>151</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>152</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
         <v>153</v>
       </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>154</v>
-      </c>
-      <c r="I9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
@@ -1408,28 +1443,28 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
         <v>156</v>
       </c>
-      <c r="C10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>157</v>
-      </c>
-      <c r="I10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
@@ -1437,28 +1472,28 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>160</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>161</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
         <v>162</v>
       </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>163</v>
-      </c>
-      <c r="I11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
@@ -1466,28 +1501,28 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
         <v>165</v>
       </c>
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
         <v>166</v>
       </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>167</v>
-      </c>
-      <c r="I12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
@@ -1495,28 +1530,28 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
         <v>169</v>
       </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
         <v>170</v>
       </c>
-      <c r="E13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" t="s">
         <v>171</v>
       </c>
-      <c r="G13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>172</v>
-      </c>
-      <c r="I13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
@@ -1524,28 +1559,28 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
         <v>174</v>
       </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" t="s">
         <v>175</v>
       </c>
-      <c r="E14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>176</v>
-      </c>
-      <c r="I14" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2451,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1">
         <v>45473.791666666664</v>
@@ -2437,7 +2472,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D41" s="1">
         <v>45473.666666666664</v>
@@ -2458,7 +2493,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="1">
         <v>45474.791666666664</v>
@@ -2500,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1">
         <v>45475.666666666664</v>
@@ -2539,10 +2574,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
         <v>197</v>
-      </c>
-      <c r="C46" t="s">
-        <v>198</v>
       </c>
       <c r="D46" s="1">
         <v>45478.666666666664</v>
@@ -2560,10 +2595,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
         <v>199</v>
-      </c>
-      <c r="C47" t="s">
-        <v>200</v>
       </c>
       <c r="D47" s="1">
         <v>45478.791666666664</v>
@@ -2581,10 +2616,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
         <v>201</v>
-      </c>
-      <c r="C48" t="s">
-        <v>202</v>
       </c>
       <c r="D48" s="1">
         <v>45479.791666666664</v>
@@ -2602,10 +2637,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
         <v>203</v>
-      </c>
-      <c r="C49" t="s">
-        <v>204</v>
       </c>
       <c r="D49" s="1">
         <v>45479.666666666664</v>
@@ -2623,10 +2658,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
         <v>205</v>
-      </c>
-      <c r="C50" t="s">
-        <v>206</v>
       </c>
       <c r="D50" s="1">
         <v>45482.791666666664</v>
@@ -2644,10 +2679,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
         <v>207</v>
-      </c>
-      <c r="C51" t="s">
-        <v>208</v>
       </c>
       <c r="D51" s="1">
         <v>45483.791666666664</v>
@@ -2722,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2730,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -2754,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -2770,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
@@ -2778,7 +2813,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -2794,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -2810,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -2826,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2842,7 +2877,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -2850,7 +2885,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -2858,7 +2893,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -2866,7 +2901,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
@@ -2874,7 +2909,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -2882,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -2898,7 +2933,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2912,18 +2947,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2E615E-FE08-4442-901C-E33FB48A622A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2951,174 +2986,195 @@
       <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/tournaments/2024-mens-euro.xlsx
+++ b/tournaments/2024-mens-euro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/Documents/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DA7C-9D52-4D59-9EBB-FB3A69516C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447ED7F0-9572-4B43-B622-63E90125B754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2567" yWindow="2567" windowWidth="19200" windowHeight="10073" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="225">
   <si>
     <t>A1</t>
   </si>
@@ -701,7 +701,19 @@
     <t>#2a2f39</t>
   </si>
   <si>
-    <t>#8c8c8c</t>
+    <t>#acacac</t>
+  </si>
+  <si>
+    <t>pale blue</t>
+  </si>
+  <si>
+    <t>#92d692</t>
+  </si>
+  <si>
+    <t>pale goldenrod</t>
+  </si>
+  <si>
+    <t>#fcaf2d</t>
   </si>
 </sst>
 </file>
@@ -841,8 +853,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:I23" totalsRowShown="0">
-  <autoFilter ref="A1:I23" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:I25" totalsRowShown="0">
+  <autoFilter ref="A1:I25" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{74FEACBC-8E4D-4EFA-8F69-50200C488F4A}" name="key"/>
     <tableColumn id="2" xr3:uid="{A581F199-5AED-47CD-9F67-78BB18ACA6D7}" name="en"/>
@@ -1164,20 +1176,20 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.05859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.05859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1467,7 +1479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1601,16 +1613,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.17578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1666,7 +1678,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1687,7 +1699,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1708,7 +1720,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1729,7 +1741,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1750,7 +1762,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1771,7 +1783,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1792,7 +1804,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1813,7 +1825,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1834,7 +1846,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1855,7 +1867,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1876,7 +1888,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1897,7 +1909,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1918,7 +1930,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1939,7 +1951,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1960,7 +1972,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1981,7 +1993,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2002,7 +2014,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2023,7 +2035,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2044,7 +2056,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2065,7 +2077,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2086,7 +2098,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2107,7 +2119,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2128,7 +2140,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2149,7 +2161,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2170,7 +2182,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2191,7 +2203,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2212,7 +2224,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2233,7 +2245,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2254,7 +2266,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2275,7 +2287,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2296,7 +2308,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2317,7 +2329,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2338,7 +2350,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2359,7 +2371,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2380,7 +2392,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2401,7 +2413,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2422,7 +2434,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2443,7 +2455,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2464,7 +2476,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2485,7 +2497,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2506,7 +2518,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2527,7 +2539,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2548,7 +2560,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2569,7 +2581,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2590,7 +2602,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2611,7 +2623,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2632,7 +2644,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2653,7 +2665,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2674,7 +2686,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2695,7 +2707,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2734,9 +2746,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +2772,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2932,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2947,18 +2959,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2E615E-FE08-4442-901C-E33FB48A622A}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2987,57 +2999,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3047,7 +3059,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -3057,7 +3069,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -3089,7 +3101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -3129,51 +3141,67 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>208</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>210</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>212</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>214</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>217</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>218</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>219</v>
       </c>
     </row>

--- a/tournaments/2024-mens-euro.xlsx
+++ b/tournaments/2024-mens-euro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DA7C-9D52-4D59-9EBB-FB3A69516C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716FB18-845B-4FAD-94F4-B59DC1636769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2567" yWindow="2567" windowWidth="19200" windowHeight="10073" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="10073" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="203">
   <si>
     <t>A1</t>
   </si>
@@ -290,9 +290,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>pale cyan</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -323,42 +320,6 @@
     <t>pale teal</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>#fab077</t>
-  </si>
-  <si>
-    <t>pale orange</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>pale pink</t>
-  </si>
-  <si>
-    <t>pale rose</t>
-  </si>
-  <si>
-    <t>#92d6df</t>
-  </si>
-  <si>
-    <t>#efc9d8</t>
-  </si>
-  <si>
-    <t>#f8f391</t>
-  </si>
-  <si>
-    <t>#b0df90</t>
-  </si>
-  <si>
-    <t>#60b4c7</t>
-  </si>
-  <si>
-    <t>#eb84af</t>
-  </si>
-  <si>
     <t>Alemania</t>
   </si>
   <si>
@@ -665,43 +626,28 @@
     <t>W48</t>
   </si>
   <si>
-    <t>medium green</t>
-  </si>
-  <si>
-    <t>#00b26b</t>
-  </si>
-  <si>
-    <t>medium blue</t>
-  </si>
-  <si>
-    <t>#005baa</t>
-  </si>
-  <si>
-    <t>medium red</t>
-  </si>
-  <si>
-    <t>#ed1c24</t>
-  </si>
-  <si>
-    <t>medium yellow</t>
-  </si>
-  <si>
-    <t>#fcaf17</t>
-  </si>
-  <si>
-    <t>#5f97b4</t>
-  </si>
-  <si>
-    <t>medum teal</t>
-  </si>
-  <si>
-    <t>medium navy</t>
-  </si>
-  <si>
-    <t>#2a2f39</t>
-  </si>
-  <si>
-    <t>#8c8c8c</t>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>pale blue</t>
+  </si>
+  <si>
+    <t>#c4e1b5</t>
+  </si>
+  <si>
+    <t>#b0d0ee</t>
+  </si>
+  <si>
+    <t>#c0e4df</t>
+  </si>
+  <si>
+    <t>pale gray</t>
+  </si>
+  <si>
+    <t>#fee289</t>
+  </si>
+  <si>
+    <t>#acacac</t>
   </si>
 </sst>
 </file>
@@ -841,9 +787,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:I23" totalsRowShown="0">
-  <autoFilter ref="A1:I23" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B4799E7-1333-4422-AE4E-34BE28422317}" name="groups" displayName="groups" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{74FEACBC-8E4D-4EFA-8F69-50200C488F4A}" name="key"/>
     <tableColumn id="2" xr3:uid="{A581F199-5AED-47CD-9F67-78BB18ACA6D7}" name="en"/>
     <tableColumn id="3" xr3:uid="{842A5943-6DCD-4A02-90FE-ED0B95974031}" name="es"/>
@@ -853,6 +799,7 @@
     <tableColumn id="7" xr3:uid="{62715CD3-F132-44D5-89DB-3FEA3938DCAE}" name="nl"/>
     <tableColumn id="8" xr3:uid="{373F278C-AA56-4847-9936-7CDB1D93754B}" name="ja"/>
     <tableColumn id="9" xr3:uid="{6DCFFACA-53BA-4D49-9A7E-5B9205135116}" name="fa"/>
+    <tableColumn id="10" xr3:uid="{1038C30B-5A50-45EC-B1D3-5926C4317E36}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,28 +1158,28 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
@@ -1240,28 +1187,28 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
@@ -1269,28 +1216,28 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
@@ -1298,28 +1245,28 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
@@ -1327,28 +1274,28 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
@@ -1356,28 +1303,28 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
@@ -1385,28 +1332,28 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
@@ -1414,28 +1361,28 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
@@ -1443,28 +1390,28 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
@@ -1472,28 +1419,28 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
@@ -1501,28 +1448,28 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
@@ -1530,28 +1477,28 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
@@ -1559,28 +1506,28 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D40" s="1">
         <v>45473.791666666664</v>
@@ -2472,7 +2419,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1">
         <v>45473.666666666664</v>
@@ -2493,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1">
         <v>45474.791666666664</v>
@@ -2535,7 +2482,7 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D44" s="1">
         <v>45475.666666666664</v>
@@ -2574,10 +2521,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D46" s="1">
         <v>45478.666666666664</v>
@@ -2595,10 +2542,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D47" s="1">
         <v>45478.791666666664</v>
@@ -2616,10 +2563,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D48" s="1">
         <v>45479.791666666664</v>
@@ -2637,10 +2584,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D49" s="1">
         <v>45479.666666666664</v>
@@ -2658,10 +2605,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D50" s="1">
         <v>45482.791666666664</v>
@@ -2679,10 +2626,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1">
         <v>45483.791666666664</v>
@@ -2757,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2765,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -2789,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -2805,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
@@ -2813,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -2829,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -2845,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -2861,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2877,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -2885,7 +2832,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -2893,7 +2840,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -2901,7 +2848,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
@@ -2909,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -2917,7 +2864,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -2933,7 +2880,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2947,10 +2894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2E615E-FE08-4442-901C-E33FB48A622A}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2958,7 +2905,7 @@
     <col min="1" max="1" width="12.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2986,195 +2933,86 @@
       <c r="I1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" t="s">
-        <v>219</v>
+      <c r="J7" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/tournaments/2024-mens-euro.xlsx
+++ b/tournaments/2024-mens-euro.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716FB18-845B-4FAD-94F4-B59DC1636769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CB573-ABBE-441F-BBC1-1683B32744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="10073" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="7" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
     <sheet name="Matches" sheetId="1" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
     <sheet name="Colors" sheetId="9" r:id="rId4"/>
+    <sheet name="#matches" sheetId="10" r:id="rId5"/>
+    <sheet name="#seeds" sheetId="11" r:id="rId6"/>
+    <sheet name="#teams" sheetId="12" r:id="rId7"/>
+    <sheet name="#venues" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="416">
   <si>
     <t>A1</t>
   </si>
@@ -648,16 +652,656 @@
   </si>
   <si>
     <t>#acacac</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>location.code</t>
+  </si>
+  <si>
+    <t>home.code</t>
+  </si>
+  <si>
+    <t>away.code</t>
+  </si>
+  <si>
+    <t>home.seed</t>
+  </si>
+  <si>
+    <t>away.seed</t>
+  </si>
+  <si>
+    <t>date.utc</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Round of 16</t>
+  </si>
+  <si>
+    <t>Winner A</t>
+  </si>
+  <si>
+    <t>Runner Up C</t>
+  </si>
+  <si>
+    <t>Runner Up A</t>
+  </si>
+  <si>
+    <t>Runner Up B</t>
+  </si>
+  <si>
+    <t>Winner B</t>
+  </si>
+  <si>
+    <t>3rd A/D/E/F</t>
+  </si>
+  <si>
+    <t>Winner C</t>
+  </si>
+  <si>
+    <t>3rd D/E/F</t>
+  </si>
+  <si>
+    <t>Winner F</t>
+  </si>
+  <si>
+    <t>3rd A/B/C</t>
+  </si>
+  <si>
+    <t>Runner Up D</t>
+  </si>
+  <si>
+    <t>Runner Up E</t>
+  </si>
+  <si>
+    <t>Winner E</t>
+  </si>
+  <si>
+    <t>3rd A/B/C/D</t>
+  </si>
+  <si>
+    <t>Winner D</t>
+  </si>
+  <si>
+    <t>Runner Up F</t>
+  </si>
+  <si>
+    <t>Quarter Finals</t>
+  </si>
+  <si>
+    <t>Winner #39</t>
+  </si>
+  <si>
+    <t>Winner #37</t>
+  </si>
+  <si>
+    <t>Winner #41</t>
+  </si>
+  <si>
+    <t>Winner #42</t>
+  </si>
+  <si>
+    <t>Winner #43</t>
+  </si>
+  <si>
+    <t>Winner #44</t>
+  </si>
+  <si>
+    <t>Winner #40</t>
+  </si>
+  <si>
+    <t>Winner #38</t>
+  </si>
+  <si>
+    <t>Semi Finals</t>
+  </si>
+  <si>
+    <t>Winner #45</t>
+  </si>
+  <si>
+    <t>Winner #46</t>
+  </si>
+  <si>
+    <t>Winner #47</t>
+  </si>
+  <si>
+    <t>Winner #48</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Winner #49</t>
+  </si>
+  <si>
+    <t>Winner #50</t>
+  </si>
+  <si>
+    <t>team.lower</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>mex</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>ned</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>uru</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>sui</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>cro</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>wal</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>irn</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>jpn</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>srb</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>ukr</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>nga</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>crc</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>egy</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>tun</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>cmr</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>sco</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>alg</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>svk</t>
+  </si>
+  <si>
+    <t>ecu</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>ire</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>rom</t>
+  </si>
+  <si>
+    <t>ksa</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>qat</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>ivc</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>nir</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>bfs</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>ven</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>bah</t>
+  </si>
+  <si>
+    <t>Bosnia a. Herzeg.</t>
+  </si>
+  <si>
+    <t>gha</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>nmc</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>isl</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>jma</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>svn</t>
+  </si>
+  <si>
+    <t>alb</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>uae</t>
+  </si>
+  <si>
+    <t>Un. Ar. Emirates</t>
+  </si>
+  <si>
+    <t>saf</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>irq</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>bul</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>isr</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>bol</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>hon</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>blr</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>nzl</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>zam</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>vie</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,16 +1323,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -696,19 +1377,548 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -763,13 +1973,13 @@
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="34"/>
     <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
     <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,6 +2010,67 @@
     <tableColumn id="8" xr3:uid="{373F278C-AA56-4847-9936-7CDB1D93754B}" name="ja"/>
     <tableColumn id="9" xr3:uid="{6DCFFACA-53BA-4D49-9A7E-5B9205135116}" name="fa"/>
     <tableColumn id="10" xr3:uid="{1038C30B-5A50-45EC-B1D3-5926C4317E36}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16" tableBorderDxfId="29">
+  <autoFilter ref="A1:L52" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="22">
+      <calculatedColumnFormula>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="17">
+      <calculatedColumnFormula>'#matches'!$C2-TIME(2,0,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="14">
+  <autoFilter ref="A1:C25" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="11">
+      <calculatedColumnFormula>LOWER('#seeds'!$B2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="9">
+  <autoFilter ref="A1:B86" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="4">
+  <autoFilter ref="A1:B11" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2896,7 +4167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2E615E-FE08-4442-901C-E33FB48A622A}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3022,4 +4293,3314 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FEB32-6815-445F-8917-7CFC6F938D92}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="3" max="3" width="12.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.05859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5859375" customWidth="1"/>
+    <col min="7" max="7" width="20.9375" customWidth="1"/>
+    <col min="8" max="8" width="11.703125" customWidth="1"/>
+    <col min="9" max="9" width="11.29296875" customWidth="1"/>
+    <col min="10" max="10" width="11.5859375" customWidth="1"/>
+    <col min="11" max="11" width="11.17578125" customWidth="1"/>
+    <col min="12" max="12" width="20.3515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45457.875</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</f>
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D2,'#teams'!$B$2:$B$86,0))</f>
+        <v>ger</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E2,'#teams'!$B$2:$B$86,0))</f>
+        <v>sco</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H2,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A1</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I2,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A2</v>
+      </c>
+      <c r="L2" s="7">
+        <f>'#matches'!$C2-TIME(2,0,0)</f>
+        <v>45457.791666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45458.625</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F3,'#venues'!$B$2:$B$11,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D3,'#teams'!$B$2:$B$86,0))</f>
+        <v>hun</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E3,'#teams'!$B$2:$B$86,0))</f>
+        <v>sui</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H3,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A3</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I3,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A4</v>
+      </c>
+      <c r="L3" s="8">
+        <f>'#matches'!$C3-TIME(2,0,0)</f>
+        <v>45458.541666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45458.75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F4,'#venues'!$B$2:$B$11,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D4,'#teams'!$B$2:$B$86,0))</f>
+        <v>esp</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E4,'#teams'!$B$2:$B$86,0))</f>
+        <v>cro</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H4,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B1</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I4,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B2</v>
+      </c>
+      <c r="L4" s="7">
+        <f>'#matches'!$C4-TIME(2,0,0)</f>
+        <v>45458.666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45458.875</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F5,'#venues'!$B$2:$B$11,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D5,'#teams'!$B$2:$B$86,0))</f>
+        <v>ita</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E5,'#teams'!$B$2:$B$86,0))</f>
+        <v>alb</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H5,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B3</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I5,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B4</v>
+      </c>
+      <c r="L5" s="8">
+        <f>'#matches'!$C5-TIME(2,0,0)</f>
+        <v>45458.791666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45459.875</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F6,'#venues'!$B$2:$B$11,0))</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D6,'#teams'!$B$2:$B$86,0))</f>
+        <v>srb</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E6,'#teams'!$B$2:$B$86,0))</f>
+        <v>eng</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H6,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C3</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I6,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C4</v>
+      </c>
+      <c r="L6" s="7">
+        <f>'#matches'!$C6-TIME(2,0,0)</f>
+        <v>45459.791666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45459.75</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F7,'#venues'!$B$2:$B$11,0))</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D7,'#teams'!$B$2:$B$86,0))</f>
+        <v>svn</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E7,'#teams'!$B$2:$B$86,0))</f>
+        <v>den</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H7,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C1</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I7,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C2</v>
+      </c>
+      <c r="L7" s="8">
+        <f>'#matches'!$C7-TIME(2,0,0)</f>
+        <v>45459.666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45459.625</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F8,'#venues'!$B$2:$B$11,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D8,'#teams'!$B$2:$B$86,0))</f>
+        <v>pol</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E8,'#teams'!$B$2:$B$86,0))</f>
+        <v>ned</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H8,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D1</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I8,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D2</v>
+      </c>
+      <c r="L8" s="7">
+        <f>'#matches'!$C8-TIME(2,0,0)</f>
+        <v>45459.541666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45460.875</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F9,'#venues'!$B$2:$B$11,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D9,'#teams'!$B$2:$B$86,0))</f>
+        <v>aut</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E9,'#teams'!$B$2:$B$86,0))</f>
+        <v>fra</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H9,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D3</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I9,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D4</v>
+      </c>
+      <c r="L9" s="8">
+        <f>'#matches'!$C9-TIME(2,0,0)</f>
+        <v>45460.791666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45460.75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F10,'#venues'!$B$2:$B$11,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D10,'#teams'!$B$2:$B$86,0))</f>
+        <v>bel</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E10,'#teams'!$B$2:$B$86,0))</f>
+        <v>svk</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H10,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E1</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I10,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E2</v>
+      </c>
+      <c r="L10" s="7">
+        <f>'#matches'!$C10-TIME(2,0,0)</f>
+        <v>45460.666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45460.625</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F11,'#venues'!$B$2:$B$11,0))</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D11,'#teams'!$B$2:$B$86,0))</f>
+        <v>rom</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E11,'#teams'!$B$2:$B$86,0))</f>
+        <v>ukr</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H11,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E3</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I11,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E4</v>
+      </c>
+      <c r="L11" s="8">
+        <f>'#matches'!$C11-TIME(2,0,0)</f>
+        <v>45460.541666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45461.75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F12,'#venues'!$B$2:$B$11,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D12,'#teams'!$B$2:$B$86,0))</f>
+        <v>tur</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E12,'#teams'!$B$2:$B$86,0))</f>
+        <v>geo</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H12,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F1</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I12,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F2</v>
+      </c>
+      <c r="L12" s="7">
+        <f>'#matches'!$C12-TIME(2,0,0)</f>
+        <v>45461.666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45461.875</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F13,'#venues'!$B$2:$B$11,0))</f>
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D13,'#teams'!$B$2:$B$86,0))</f>
+        <v>por</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E13,'#teams'!$B$2:$B$86,0))</f>
+        <v>cze</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H13,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F3</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I13,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F4</v>
+      </c>
+      <c r="L13" s="8">
+        <f>'#matches'!$C13-TIME(2,0,0)</f>
+        <v>45461.791666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45462.875</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F14,'#venues'!$B$2:$B$11,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D14,'#teams'!$B$2:$B$86,0))</f>
+        <v>sco</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E14,'#teams'!$B$2:$B$86,0))</f>
+        <v>sui</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H14,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A2</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I14,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A4</v>
+      </c>
+      <c r="L14" s="7">
+        <f>'#matches'!$C14-TIME(2,0,0)</f>
+        <v>45462.791666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45462.75</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F15,'#venues'!$B$2:$B$11,0))</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D15,'#teams'!$B$2:$B$86,0))</f>
+        <v>ger</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E15,'#teams'!$B$2:$B$86,0))</f>
+        <v>hun</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H15,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A1</v>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I15,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A3</v>
+      </c>
+      <c r="L15" s="8">
+        <f>'#matches'!$C15-TIME(2,0,0)</f>
+        <v>45462.666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45462.625</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F16,'#venues'!$B$2:$B$11,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D16,'#teams'!$B$2:$B$86,0))</f>
+        <v>cro</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E16,'#teams'!$B$2:$B$86,0))</f>
+        <v>alb</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H16,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B2</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I16,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B4</v>
+      </c>
+      <c r="L16" s="7">
+        <f>'#matches'!$C16-TIME(2,0,0)</f>
+        <v>45462.541666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45463.875</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F17,'#venues'!$B$2:$B$11,0))</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D17,'#teams'!$B$2:$B$86,0))</f>
+        <v>esp</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E17,'#teams'!$B$2:$B$86,0))</f>
+        <v>ita</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H17,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B1</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I17,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B3</v>
+      </c>
+      <c r="L17" s="8">
+        <f>'#matches'!$C17-TIME(2,0,0)</f>
+        <v>45463.791666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45463.75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F18,'#venues'!$B$2:$B$11,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D18,'#teams'!$B$2:$B$86,0))</f>
+        <v>den</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E18,'#teams'!$B$2:$B$86,0))</f>
+        <v>eng</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H18,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C2</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I18,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C4</v>
+      </c>
+      <c r="L18" s="7">
+        <f>'#matches'!$C18-TIME(2,0,0)</f>
+        <v>45463.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45463.625</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F19,'#venues'!$B$2:$B$11,0))</f>
+        <v>9</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D19,'#teams'!$B$2:$B$86,0))</f>
+        <v>svn</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E19,'#teams'!$B$2:$B$86,0))</f>
+        <v>srb</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H19,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C1</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I19,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C3</v>
+      </c>
+      <c r="L19" s="8">
+        <f>'#matches'!$C19-TIME(2,0,0)</f>
+        <v>45463.541666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45464.75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F20,'#venues'!$B$2:$B$11,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D20,'#teams'!$B$2:$B$86,0))</f>
+        <v>pol</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E20,'#teams'!$B$2:$B$86,0))</f>
+        <v>aut</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H20,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D1</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I20,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D3</v>
+      </c>
+      <c r="L20" s="7">
+        <f>'#matches'!$C20-TIME(2,0,0)</f>
+        <v>45464.666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45464.875</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F21,'#venues'!$B$2:$B$11,0))</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D21,'#teams'!$B$2:$B$86,0))</f>
+        <v>ned</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E21,'#teams'!$B$2:$B$86,0))</f>
+        <v>fra</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H21,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D2</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I21,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D4</v>
+      </c>
+      <c r="L21" s="8">
+        <f>'#matches'!$C21-TIME(2,0,0)</f>
+        <v>45464.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45464.625</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F22,'#venues'!$B$2:$B$11,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D22,'#teams'!$B$2:$B$86,0))</f>
+        <v>svk</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E22,'#teams'!$B$2:$B$86,0))</f>
+        <v>ukr</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H22,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E2</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I22,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E4</v>
+      </c>
+      <c r="L22" s="7">
+        <f>'#matches'!$C22-TIME(2,0,0)</f>
+        <v>45464.541666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45465.875</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F23,'#venues'!$B$2:$B$11,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D23,'#teams'!$B$2:$B$86,0))</f>
+        <v>bel</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E23,'#teams'!$B$2:$B$86,0))</f>
+        <v>rom</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H23,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E1</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I23,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E3</v>
+      </c>
+      <c r="L23" s="8">
+        <f>'#matches'!$C23-TIME(2,0,0)</f>
+        <v>45465.791666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45465.75</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F24,'#venues'!$B$2:$B$11,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D24,'#teams'!$B$2:$B$86,0))</f>
+        <v>tur</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E24,'#teams'!$B$2:$B$86,0))</f>
+        <v>por</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H24,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F1</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I24,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F3</v>
+      </c>
+      <c r="L24" s="7">
+        <f>'#matches'!$C24-TIME(2,0,0)</f>
+        <v>45465.666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45465.625</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F25,'#venues'!$B$2:$B$11,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D25,'#teams'!$B$2:$B$86,0))</f>
+        <v>geo</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E25,'#teams'!$B$2:$B$86,0))</f>
+        <v>cze</v>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H25,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F2</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I25,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F4</v>
+      </c>
+      <c r="L25" s="8">
+        <f>'#matches'!$C25-TIME(2,0,0)</f>
+        <v>45465.541666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45466.875</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F26,'#venues'!$B$2:$B$11,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D26,'#teams'!$B$2:$B$86,0))</f>
+        <v>sui</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E26,'#teams'!$B$2:$B$86,0))</f>
+        <v>ger</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H26,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A4</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I26,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A1</v>
+      </c>
+      <c r="L26" s="7">
+        <f>'#matches'!$C26-TIME(2,0,0)</f>
+        <v>45466.791666666664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45466.875</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F27,'#venues'!$B$2:$B$11,0))</f>
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D27,'#teams'!$B$2:$B$86,0))</f>
+        <v>sco</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E27,'#teams'!$B$2:$B$86,0))</f>
+        <v>hun</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H27,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A2</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I27,'#seeds'!$C$2:$C$25,0))</f>
+        <v>A3</v>
+      </c>
+      <c r="L27" s="8">
+        <f>'#matches'!$C27-TIME(2,0,0)</f>
+        <v>45466.791666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4">
+        <v>45467.875</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F28,'#venues'!$B$2:$B$11,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D28,'#teams'!$B$2:$B$86,0))</f>
+        <v>alb</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E28,'#teams'!$B$2:$B$86,0))</f>
+        <v>esp</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H28,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B4</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I28,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B1</v>
+      </c>
+      <c r="L28" s="7">
+        <f>'#matches'!$C28-TIME(2,0,0)</f>
+        <v>45467.791666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45467.875</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F29,'#venues'!$B$2:$B$11,0))</f>
+        <v>8</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D29,'#teams'!$B$2:$B$86,0))</f>
+        <v>cro</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E29,'#teams'!$B$2:$B$86,0))</f>
+        <v>ita</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H29,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B2</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I29,'#seeds'!$C$2:$C$25,0))</f>
+        <v>B3</v>
+      </c>
+      <c r="L29" s="8">
+        <f>'#matches'!$C29-TIME(2,0,0)</f>
+        <v>45467.791666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45468.875</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F30,'#venues'!$B$2:$B$11,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D30,'#teams'!$B$2:$B$86,0))</f>
+        <v>eng</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E30,'#teams'!$B$2:$B$86,0))</f>
+        <v>svn</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H30,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C4</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I30,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C1</v>
+      </c>
+      <c r="L30" s="7">
+        <f>'#matches'!$C30-TIME(2,0,0)</f>
+        <v>45468.791666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45468.875</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F31,'#venues'!$B$2:$B$11,0))</f>
+        <v>9</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D31,'#teams'!$B$2:$B$86,0))</f>
+        <v>den</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E31,'#teams'!$B$2:$B$86,0))</f>
+        <v>srb</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H31,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C2</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I31,'#seeds'!$C$2:$C$25,0))</f>
+        <v>C3</v>
+      </c>
+      <c r="L31" s="8">
+        <f>'#matches'!$C31-TIME(2,0,0)</f>
+        <v>45468.791666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45468.75</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F32,'#venues'!$B$2:$B$11,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D32,'#teams'!$B$2:$B$86,0))</f>
+        <v>ned</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E32,'#teams'!$B$2:$B$86,0))</f>
+        <v>aut</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H32,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D2</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I32,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D3</v>
+      </c>
+      <c r="L32" s="7">
+        <f>'#matches'!$C32-TIME(2,0,0)</f>
+        <v>45468.666666666664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45468.75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F33,'#venues'!$B$2:$B$11,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D33,'#teams'!$B$2:$B$86,0))</f>
+        <v>fra</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E33,'#teams'!$B$2:$B$86,0))</f>
+        <v>pol</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H33,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D4</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I33,'#seeds'!$C$2:$C$25,0))</f>
+        <v>D1</v>
+      </c>
+      <c r="L33" s="8">
+        <f>'#matches'!$C33-TIME(2,0,0)</f>
+        <v>45468.666666666664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4">
+        <v>45469.75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F34,'#venues'!$B$2:$B$11,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D34,'#teams'!$B$2:$B$86,0))</f>
+        <v>svk</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E34,'#teams'!$B$2:$B$86,0))</f>
+        <v>rom</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H34,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E2</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I34,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E3</v>
+      </c>
+      <c r="L34" s="7">
+        <f>'#matches'!$C34-TIME(2,0,0)</f>
+        <v>45469.666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45469.75</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F35,'#venues'!$B$2:$B$11,0))</f>
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D35,'#teams'!$B$2:$B$86,0))</f>
+        <v>ukr</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E35,'#teams'!$B$2:$B$86,0))</f>
+        <v>bel</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H35,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E4</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I35,'#seeds'!$C$2:$C$25,0))</f>
+        <v>E1</v>
+      </c>
+      <c r="L35" s="8">
+        <f>'#matches'!$C35-TIME(2,0,0)</f>
+        <v>45469.666666666664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4">
+        <v>45469.875</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F36,'#venues'!$B$2:$B$11,0))</f>
+        <v>6</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D36,'#teams'!$B$2:$B$86,0))</f>
+        <v>geo</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E36,'#teams'!$B$2:$B$86,0))</f>
+        <v>por</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H36,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F2</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I36,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F3</v>
+      </c>
+      <c r="L36" s="7">
+        <f>'#matches'!$C36-TIME(2,0,0)</f>
+        <v>45469.791666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45469.875</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F37,'#venues'!$B$2:$B$11,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$D37,'#teams'!$B$2:$B$86,0))</f>
+        <v>cze</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f>INDEX('#teams'!$A$2:$A$86,MATCH('#matches'!$E37,'#teams'!$B$2:$B$86,0))</f>
+        <v>tur</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$H37,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F4</v>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f>INDEX('#seeds'!$A$2:$A$25,MATCH('#matches'!$I37,'#seeds'!$C$2:$C$25,0))</f>
+        <v>F1</v>
+      </c>
+      <c r="L37" s="8">
+        <f>'#matches'!$C37-TIME(2,0,0)</f>
+        <v>45469.791666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="4">
+        <v>45472.875</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F38,'#venues'!$B$2:$B$11,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7">
+        <f>'#matches'!$C38-TIME(2,0,0)</f>
+        <v>45472.791666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6">
+        <v>45472.75</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F39,'#venues'!$B$2:$B$11,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="8">
+        <f>'#matches'!$C39-TIME(2,0,0)</f>
+        <v>45472.666666666664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4">
+        <v>45473.875</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F40,'#venues'!$B$2:$B$11,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40" s="7">
+        <f>'#matches'!$C40-TIME(2,0,0)</f>
+        <v>45473.791666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6">
+        <v>45473.75</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F41,'#venues'!$B$2:$B$11,0))</f>
+        <v>6</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="8">
+        <f>'#matches'!$C41-TIME(2,0,0)</f>
+        <v>45473.666666666664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4">
+        <v>45474.875</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F42,'#venues'!$B$2:$B$11,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" s="7">
+        <f>'#matches'!$C42-TIME(2,0,0)</f>
+        <v>45474.791666666664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6">
+        <v>45474.75</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F43,'#venues'!$B$2:$B$11,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="8">
+        <f>'#matches'!$C43-TIME(2,0,0)</f>
+        <v>45474.666666666664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4">
+        <v>45475.75</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F44,'#venues'!$B$2:$B$11,0))</f>
+        <v>9</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="7">
+        <f>'#matches'!$C44-TIME(2,0,0)</f>
+        <v>45475.666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6">
+        <v>45475.875</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F45,'#venues'!$B$2:$B$11,0))</f>
+        <v>8</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="8">
+        <f>'#matches'!$C45-TIME(2,0,0)</f>
+        <v>45475.791666666664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45478.75</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F46,'#venues'!$B$2:$B$11,0))</f>
+        <v>10</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L46" s="7">
+        <f>'#matches'!$C46-TIME(2,0,0)</f>
+        <v>45478.666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6">
+        <v>45478.875</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F47,'#venues'!$B$2:$B$11,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47" s="8">
+        <f>'#matches'!$C47-TIME(2,0,0)</f>
+        <v>45478.791666666664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4">
+        <v>45479.875</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F48,'#venues'!$B$2:$B$11,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L48" s="7">
+        <f>'#matches'!$C48-TIME(2,0,0)</f>
+        <v>45479.791666666664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6">
+        <v>45479.75</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F49,'#venues'!$B$2:$B$11,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L49" s="8">
+        <f>'#matches'!$C49-TIME(2,0,0)</f>
+        <v>45479.666666666664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45482.875</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F50,'#venues'!$B$2:$B$11,0))</f>
+        <v>9</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" s="7">
+        <f>'#matches'!$C50-TIME(2,0,0)</f>
+        <v>45482.791666666664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6">
+        <v>45483.875</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="5">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F51,'#venues'!$B$2:$B$11,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" s="8">
+        <f>'#matches'!$C51-TIME(2,0,0)</f>
+        <v>45483.791666666664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45487.875</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="3">
+        <f>INDEX('#venues'!$A$2:$A$11,MATCH(F52,'#venues'!$B$2:$B$11,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="7">
+        <f>'#matches'!$C52-TIME(2,0,0)</f>
+        <v>45487.791666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{0FE7F3EF-69B7-40C6-94E4-F7EC130CFBB2}"/>
+    <hyperlink ref="J1" r:id="rId2" xr:uid="{C5BF11FB-3266-4758-A36B-7B4A8D8B5182}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA9AC2A-3643-4974-86B9-EF75198A4807}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="3" max="3" width="11.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>LOWER('#seeds'!$B2)</f>
+        <v>ger</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>LOWER('#seeds'!$B3)</f>
+        <v>sco</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>LOWER('#seeds'!$B4)</f>
+        <v>hun</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>LOWER('#seeds'!$B5)</f>
+        <v>sui</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>LOWER('#seeds'!$B6)</f>
+        <v>esp</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>LOWER('#seeds'!$B7)</f>
+        <v>cro</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>LOWER('#seeds'!$B8)</f>
+        <v>ita</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>LOWER('#seeds'!$B9)</f>
+        <v>alb</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>LOWER('#seeds'!$B10)</f>
+        <v>svn</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>LOWER('#seeds'!$B11)</f>
+        <v>den</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>LOWER('#seeds'!$B12)</f>
+        <v>srb</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>LOWER('#seeds'!$B13)</f>
+        <v>eng</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>LOWER('#seeds'!$B14)</f>
+        <v>pol</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f>LOWER('#seeds'!$B15)</f>
+        <v>ned</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>LOWER('#seeds'!$B16)</f>
+        <v>aut</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>LOWER('#seeds'!$B17)</f>
+        <v>fra</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>LOWER('#seeds'!$B18)</f>
+        <v>bel</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f>LOWER('#seeds'!$B19)</f>
+        <v>svk</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f>LOWER('#seeds'!$B20)</f>
+        <v>rom</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f>LOWER('#seeds'!$B21)</f>
+        <v>ukr</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f>LOWER('#seeds'!$B22)</f>
+        <v>tur</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>LOWER('#seeds'!$B23)</f>
+        <v>geo</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>LOWER('#seeds'!$B24)</f>
+        <v>por</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f>LOWER('#seeds'!$B25)</f>
+        <v>cze</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C09BA75-BECF-43FC-B901-D10C51675D3E}">
+  <dimension ref="A1:B86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A68" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A69" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A72" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A73" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A74" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A75" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A76" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A77" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A78" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A79" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A80" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A81" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A82" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A83" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A84" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A85" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A86" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42870EE0-9A93-4C0E-90B8-212E30BC755C}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="12.703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tournaments/2024-mens-euro.xlsx
+++ b/tournaments/2024-mens-euro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CB573-ABBE-441F-BBC1-1683B32744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DEA46-652A-0F46-9112-50440A861094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="7" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="418">
   <si>
     <t>A1</t>
   </si>
@@ -1291,6 +1291,12 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>Europe/Berlin</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1409,6 +1415,66 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1430,14 +1496,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1494,88 +1552,12 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1674,14 +1656,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1920,6 +1894,38 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
@@ -1948,8 +1954,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -2016,23 +2022,23 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}" name="Table3" displayName="Table3" ref="A1:L52" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A1:L52" xr:uid="{ED8799A6-365F-4A26-BA2F-A641D2C5169B}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{BAB1D5AD-1C7C-4EFE-82F6-1435AF03D3AC}" name="match" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A8C9726C-4E60-4863-AFEE-4E5DE76EF2FC}" name="group" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{044764B1-515C-4F7E-A4D8-57FB81597686}" name="date" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{AC9550AC-F5D1-4B32-B429-E544654EF465}" name="home" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0474FF1E-8BEE-4128-80B3-AFC491D890EE}" name="away" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{EBD9C4C3-BF3C-4727-9B28-98AF2F29BF41}" name="location" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{873889BC-E5CA-49C4-82B0-000FD02CF5A6}" name="location.code" dataDxfId="20">
       <calculatedColumnFormula>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{4FCA44E7-14CF-4A6B-B1C2-A4AAE0EAD6FE}" name="home.code" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{1B456C7A-C24D-4957-9047-6049558EC1BB}" name="away.code" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{DBBEC4FC-2936-43AB-BA08-B51FB79E34B4}" name="home.seed" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{0625C7B9-E3D9-441B-BE37-8BB979ACAE6C}" name="away.seed" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{AE9B0C49-E0A5-4932-A009-B682DFA346F3}" name="date.utc" dataDxfId="15">
       <calculatedColumnFormula>'#matches'!$C2-TIME(2,0,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2041,12 +2047,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}" name="Table5" displayName="Table5" ref="A1:C25" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:C25" xr:uid="{3178B136-3EC2-4340-886E-8333B36E4711}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{93F9FA11-225D-47EE-BD72-A2464B3A34B2}" name="seed" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DAFBB0AB-50A5-430D-8FF9-E6D2B5AC0D22}" name="team" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1D1C8BC8-C8E2-451B-8C51-3E161D3D5C7F}" name="team.lower" dataDxfId="10">
       <calculatedColumnFormula>LOWER('#seeds'!$B2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2055,22 +2061,22 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}" name="Table6" displayName="Table6" ref="A1:B86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:B86" xr:uid="{1A16B009-D4AC-4613-A3C6-0D259E31D7AA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CDD0DBC0-5E6E-4173-A274-6304F51E6CDC}" name="key" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{43497F7A-6B16-4F89-BF79-3045159ABF5F}" name="en" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}" name="Table8" displayName="Table8" ref="A1:B11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B11" xr:uid="{DEC1AC93-5179-4525-B9F9-7702667A847A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4B1A771-A4B3-4200-BCF4-CEED1AA8D41E}" name="venue" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5598DA99-A772-466E-AF3B-D23CBCB21B1F}" name="city" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2373,29 +2379,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:B14"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.05859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.05859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2511,293 +2517,301 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>117</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>119</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>117</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>117</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>120</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>121</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>123</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>124</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>125</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>126</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>128</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>130</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>130</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>130</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>131</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>134</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>133</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>134</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>134</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>134</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>135</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>139</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>138</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>137</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>137</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>140</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>142</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>142</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>142</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>142</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>142</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>143</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>147</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>148</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>145</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>145</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>149</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>151</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>151</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>152</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>151</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>151</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>151</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>153</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>155</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>156</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>155</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>157</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>157</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>158</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>160</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>160</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>161</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>160</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>160</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>160</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>162</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2815,20 +2829,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.17578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2884,7 +2898,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2905,7 +2919,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2926,7 +2940,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2947,7 +2961,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2968,7 +2982,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2989,7 +3003,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3010,7 +3024,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3031,7 +3045,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3052,7 +3066,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3073,7 +3087,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3094,7 +3108,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3115,7 +3129,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3136,7 +3150,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3157,7 +3171,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3178,7 +3192,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3199,7 +3213,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3220,7 +3234,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3241,7 +3255,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3262,7 +3276,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3283,7 +3297,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3304,7 +3318,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3325,7 +3339,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3346,7 +3360,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3367,7 +3381,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3388,7 +3402,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3409,7 +3423,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3430,7 +3444,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3451,7 +3465,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3472,7 +3486,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3493,7 +3507,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3514,7 +3528,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3535,7 +3549,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3556,7 +3570,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3577,7 +3591,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3598,7 +3612,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3619,7 +3633,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3640,7 +3654,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3661,7 +3675,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3682,7 +3696,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3703,7 +3717,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3724,7 +3738,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3745,7 +3759,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3766,7 +3780,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3787,7 +3801,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3808,7 +3822,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3829,7 +3843,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3850,7 +3864,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3871,7 +3885,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3892,7 +3906,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3913,7 +3927,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3952,9 +3966,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -3962,7 +3976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +4008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +4032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4034,7 +4048,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4042,7 +4056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4066,7 +4080,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -4090,7 +4104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4120,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -4130,7 +4144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4138,7 +4152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4146,7 +4160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4171,12 +4185,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4208,7 +4222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4221,7 +4235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -4234,7 +4248,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -4247,7 +4261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -4260,7 +4274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -4273,7 +4287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -4303,20 +4317,20 @@
       <selection sqref="A1:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.52734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.05859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5859375" customWidth="1"/>
-    <col min="7" max="7" width="20.9375" customWidth="1"/>
-    <col min="8" max="8" width="11.703125" customWidth="1"/>
-    <col min="9" max="9" width="11.29296875" customWidth="1"/>
-    <col min="10" max="10" width="11.5859375" customWidth="1"/>
-    <col min="11" max="11" width="11.17578125" customWidth="1"/>
-    <col min="12" max="12" width="20.3515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -4354,7 +4368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4398,7 +4412,7 @@
         <v>45457.791666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4442,7 +4456,7 @@
         <v>45458.541666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4486,7 +4500,7 @@
         <v>45458.666666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4530,7 +4544,7 @@
         <v>45458.791666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4574,7 +4588,7 @@
         <v>45459.791666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4618,7 +4632,7 @@
         <v>45459.666666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4662,7 +4676,7 @@
         <v>45459.541666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4706,7 +4720,7 @@
         <v>45460.791666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4750,7 +4764,7 @@
         <v>45460.666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>45460.541666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4838,7 +4852,7 @@
         <v>45461.666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4882,7 +4896,7 @@
         <v>45461.791666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4926,7 +4940,7 @@
         <v>45462.791666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4970,7 +4984,7 @@
         <v>45462.666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5014,7 +5028,7 @@
         <v>45462.541666666664</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5058,7 +5072,7 @@
         <v>45463.791666666664</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5102,7 +5116,7 @@
         <v>45463.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5146,7 +5160,7 @@
         <v>45463.541666666664</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v>45464.666666666664</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>45464.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5278,7 +5292,7 @@
         <v>45464.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5322,7 +5336,7 @@
         <v>45465.791666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5366,7 +5380,7 @@
         <v>45465.666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5410,7 +5424,7 @@
         <v>45465.541666666664</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5454,7 +5468,7 @@
         <v>45466.791666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5498,7 +5512,7 @@
         <v>45466.791666666664</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5542,7 +5556,7 @@
         <v>45467.791666666664</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5586,7 +5600,7 @@
         <v>45467.791666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5630,7 +5644,7 @@
         <v>45468.791666666664</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5674,7 +5688,7 @@
         <v>45468.791666666664</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5718,7 +5732,7 @@
         <v>45468.666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5762,7 +5776,7 @@
         <v>45468.666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5806,7 +5820,7 @@
         <v>45469.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5850,7 +5864,7 @@
         <v>45469.666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5894,7 +5908,7 @@
         <v>45469.791666666664</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5938,7 +5952,7 @@
         <v>45469.791666666664</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5974,7 +5988,7 @@
         <v>45472.791666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -6008,7 +6022,7 @@
         <v>45472.666666666664</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -6042,7 +6056,7 @@
         <v>45473.791666666664</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6076,7 +6090,7 @@
         <v>45473.666666666664</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -6110,7 +6124,7 @@
         <v>45474.791666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -6144,7 +6158,7 @@
         <v>45474.666666666664</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -6178,7 +6192,7 @@
         <v>45475.666666666664</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -6212,7 +6226,7 @@
         <v>45475.791666666664</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6248,7 +6262,7 @@
         <v>45478.666666666664</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -6282,7 +6296,7 @@
         <v>45478.791666666664</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -6316,7 +6330,7 @@
         <v>45479.791666666664</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -6350,7 +6364,7 @@
         <v>45479.666666666664</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6386,7 +6400,7 @@
         <v>45482.791666666664</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -6420,7 +6434,7 @@
         <v>45483.791666666664</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6477,12 +6491,12 @@
       <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.9375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
@@ -6493,7 +6507,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6505,7 +6519,7 @@
         <v>ger</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -6517,7 +6531,7 @@
         <v>sco</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6529,7 +6543,7 @@
         <v>hun</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -6541,7 +6555,7 @@
         <v>sui</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -6553,7 +6567,7 @@
         <v>esp</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -6565,7 +6579,7 @@
         <v>cro</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -6577,7 +6591,7 @@
         <v>ita</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6589,7 +6603,7 @@
         <v>alb</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -6601,7 +6615,7 @@
         <v>svn</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -6613,7 +6627,7 @@
         <v>den</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6625,7 +6639,7 @@
         <v>srb</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -6637,7 +6651,7 @@
         <v>eng</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -6649,7 +6663,7 @@
         <v>pol</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -6661,7 +6675,7 @@
         <v>ned</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -6673,7 +6687,7 @@
         <v>aut</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -6685,7 +6699,7 @@
         <v>fra</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -6697,7 +6711,7 @@
         <v>bel</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -6709,7 +6723,7 @@
         <v>svk</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -6721,7 +6735,7 @@
         <v>rom</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -6733,7 +6747,7 @@
         <v>ukr</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -6745,7 +6759,7 @@
         <v>tur</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6757,7 +6771,7 @@
         <v>geo</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -6769,7 +6783,7 @@
         <v>por</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6797,9 +6811,9 @@
       <selection sqref="A1:B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
@@ -6807,7 +6821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>271</v>
       </c>
@@ -6815,7 +6829,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>273</v>
       </c>
@@ -6823,7 +6837,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>274</v>
       </c>
@@ -6831,7 +6845,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>275</v>
       </c>
@@ -6839,7 +6853,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>277</v>
       </c>
@@ -6847,7 +6861,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>278</v>
       </c>
@@ -6855,7 +6869,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>279</v>
       </c>
@@ -6863,7 +6877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>280</v>
       </c>
@@ -6871,7 +6885,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>281</v>
       </c>
@@ -6879,7 +6893,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>283</v>
       </c>
@@ -6887,7 +6901,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>284</v>
       </c>
@@ -6895,7 +6909,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>285</v>
       </c>
@@ -6903,7 +6917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>286</v>
       </c>
@@ -6911,7 +6925,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>288</v>
       </c>
@@ -6919,7 +6933,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>289</v>
       </c>
@@ -6927,7 +6941,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>291</v>
       </c>
@@ -6935,7 +6949,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>292</v>
       </c>
@@ -6943,7 +6957,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>294</v>
       </c>
@@ -6951,7 +6965,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>296</v>
       </c>
@@ -6959,7 +6973,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>298</v>
       </c>
@@ -6967,7 +6981,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>300</v>
       </c>
@@ -6975,7 +6989,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>302</v>
       </c>
@@ -6983,7 +6997,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>304</v>
       </c>
@@ -6991,7 +7005,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>306</v>
       </c>
@@ -6999,7 +7013,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>308</v>
       </c>
@@ -7007,7 +7021,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>309</v>
       </c>
@@ -7015,7 +7029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>310</v>
       </c>
@@ -7023,7 +7037,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>311</v>
       </c>
@@ -7031,7 +7045,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>313</v>
       </c>
@@ -7039,7 +7053,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>315</v>
       </c>
@@ -7047,7 +7061,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>317</v>
       </c>
@@ -7055,7 +7069,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>319</v>
       </c>
@@ -7063,7 +7077,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>321</v>
       </c>
@@ -7071,7 +7085,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>322</v>
       </c>
@@ -7079,7 +7093,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>323</v>
       </c>
@@ -7087,7 +7101,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>325</v>
       </c>
@@ -7095,7 +7109,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>327</v>
       </c>
@@ -7103,7 +7117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>329</v>
       </c>
@@ -7111,7 +7125,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -7119,7 +7133,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>332</v>
       </c>
@@ -7127,7 +7141,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>333</v>
       </c>
@@ -7135,7 +7149,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>335</v>
       </c>
@@ -7143,7 +7157,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>337</v>
       </c>
@@ -7151,7 +7165,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>338</v>
       </c>
@@ -7159,7 +7173,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>340</v>
       </c>
@@ -7167,7 +7181,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>341</v>
       </c>
@@ -7175,7 +7189,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>343</v>
       </c>
@@ -7183,7 +7197,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>345</v>
       </c>
@@ -7191,7 +7205,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>346</v>
       </c>
@@ -7199,7 +7213,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>348</v>
       </c>
@@ -7207,7 +7221,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>350</v>
       </c>
@@ -7215,7 +7229,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>352</v>
       </c>
@@ -7223,7 +7237,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>354</v>
       </c>
@@ -7231,7 +7245,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>356</v>
       </c>
@@ -7239,7 +7253,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>358</v>
       </c>
@@ -7247,7 +7261,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>360</v>
       </c>
@@ -7255,7 +7269,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>362</v>
       </c>
@@ -7263,7 +7277,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>364</v>
       </c>
@@ -7271,7 +7285,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>366</v>
       </c>
@@ -7279,7 +7293,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>368</v>
       </c>
@@ -7287,7 +7301,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>370</v>
       </c>
@@ -7295,7 +7309,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>372</v>
       </c>
@@ -7303,7 +7317,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>374</v>
       </c>
@@ -7311,7 +7325,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>376</v>
       </c>
@@ -7319,7 +7333,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>378</v>
       </c>
@@ -7327,7 +7341,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>379</v>
       </c>
@@ -7335,7 +7349,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>380</v>
       </c>
@@ -7343,7 +7357,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>382</v>
       </c>
@@ -7351,7 +7365,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>384</v>
       </c>
@@ -7359,7 +7373,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>386</v>
       </c>
@@ -7367,7 +7381,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>388</v>
       </c>
@@ -7375,7 +7389,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>390</v>
       </c>
@@ -7383,7 +7397,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>392</v>
       </c>
@@ -7391,7 +7405,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>311</v>
       </c>
@@ -7399,7 +7413,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>395</v>
       </c>
@@ -7407,7 +7421,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>397</v>
       </c>
@@ -7415,7 +7429,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>366</v>
       </c>
@@ -7423,7 +7437,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>400</v>
       </c>
@@ -7431,7 +7445,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>402</v>
       </c>
@@ -7439,7 +7453,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>404</v>
       </c>
@@ -7447,7 +7461,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>406</v>
       </c>
@@ -7455,7 +7469,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>408</v>
       </c>
@@ -7463,7 +7477,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>410</v>
       </c>
@@ -7471,7 +7485,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>412</v>
       </c>
@@ -7479,7 +7493,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>414</v>
       </c>
@@ -7499,16 +7513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42870EE0-9A93-4C0E-90B8-212E30BC755C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
@@ -7516,7 +7530,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7524,7 +7538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7532,7 +7546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7540,7 +7554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7548,7 +7562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7556,7 +7570,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7564,7 +7578,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7572,7 +7586,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7580,7 +7594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7588,7 +7602,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
